--- a/Documentacion/planeacion.xlsx
+++ b/Documentacion/planeacion.xlsx
@@ -35,7 +35,7 @@
     <t>Actividades/Días</t>
   </si>
   <si>
-    <t> 06/07/15</t>
+    <t>06/07/15</t>
   </si>
   <si>
     <t>Responsable</t>
@@ -157,7 +157,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -197,7 +197,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF9999CC"/>
-        <bgColor rgb="FF95B3D7"/>
+        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
     <fill>
@@ -209,25 +209,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCC6699"/>
-        <bgColor rgb="FFCC9966"/>
+        <bgColor rgb="FF9966CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FF9966CC"/>
+        <bgColor rgb="FFCC6699"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor rgb="FFFFCCFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC9966"/>
-        <bgColor rgb="FFCC6699"/>
+        <fgColor rgb="FFFF99FF"/>
+        <bgColor rgb="FFCC99FF"/>
       </patternFill>
     </fill>
   </fills>
@@ -342,7 +336,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="34">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -411,10 +405,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -439,10 +429,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -475,19 +461,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -543,7 +521,7 @@
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF83CAFF"/>
-      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFFF99FF"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
@@ -552,8 +530,8 @@
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FFCC9966"/>
+      <rgbColor rgb="FF9966CC"/>
+      <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -575,7 +553,7 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
+      <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -668,26 +646,26 @@
         <v>10</v>
       </c>
       <c r="B3" s="16"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="18"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="17"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="13"/>
       <c r="P3" s="14"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="21"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -698,7 +676,7 @@
       <c r="J4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="19" t="n">
+      <c r="K4" s="18" t="n">
         <v>42191</v>
       </c>
       <c r="L4" s="7" t="s">
@@ -710,11 +688,11 @@
       <c r="P4" s="14"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="19" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="7"/>
-      <c r="C5" s="22"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
@@ -724,7 +702,7 @@
       <c r="J5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="19" t="n">
+      <c r="K5" s="18" t="n">
         <v>42193</v>
       </c>
       <c r="L5" s="7" t="s">
@@ -736,13 +714,13 @@
       <c r="P5" s="14"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="22" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -756,21 +734,21 @@
       <c r="P6" s="14"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="19" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
-      <c r="D7" s="25"/>
+      <c r="D7" s="23"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="24"/>
+      <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="19" t="n">
+      <c r="K7" s="18" t="n">
         <v>42194</v>
       </c>
       <c r="L7" s="7" t="s">
@@ -782,21 +760,21 @@
       <c r="P7" s="14"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="19" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="26"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="27"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="25"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="19" t="n">
+      <c r="K8" s="18" t="n">
         <v>42194</v>
       </c>
       <c r="L8" s="7" t="s">
@@ -808,21 +786,21 @@
       <c r="P8" s="14"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="19" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="28"/>
+      <c r="E9" s="26"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="27"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="25"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="19" t="n">
+      <c r="K9" s="18" t="n">
         <v>42195</v>
       </c>
       <c r="L9" s="7" t="s">
@@ -834,21 +812,21 @@
       <c r="P9" s="14"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="29"/>
+      <c r="E10" s="27"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="24"/>
+      <c r="G10" s="7"/>
       <c r="H10" s="7"/>
-      <c r="I10" s="27"/>
+      <c r="I10" s="25"/>
       <c r="J10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="19" t="n">
+      <c r="K10" s="18" t="n">
         <v>42195</v>
       </c>
       <c r="L10" s="7" t="s">
@@ -860,7 +838,7 @@
       <c r="P10" s="14"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="22" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="7"/>
@@ -869,7 +847,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="24"/>
+      <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
@@ -880,21 +858,21 @@
       <c r="P11" s="14"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="19" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="30"/>
+      <c r="F12" s="28"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="24"/>
+      <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K12" s="19" t="n">
+      <c r="K12" s="18" t="n">
         <v>42198</v>
       </c>
       <c r="L12" s="7" t="s">
@@ -906,7 +884,7 @@
       <c r="P12" s="14"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="7"/>
@@ -914,13 +892,13 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24" t="s">
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K13" s="19" t="n">
+      <c r="K13" s="18" t="n">
         <v>42200</v>
       </c>
       <c r="L13" s="7" t="s">
@@ -932,7 +910,7 @@
       <c r="P13" s="14"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="22" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="7"/>
@@ -942,17 +920,17 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
-      <c r="I14" s="32"/>
+      <c r="I14" s="30"/>
       <c r="J14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K14" s="33" t="n">
+      <c r="K14" s="18" t="n">
         <v>42201</v>
       </c>
-      <c r="L14" s="24" t="s">
+      <c r="L14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="M14" s="34"/>
+      <c r="M14" s="14"/>
       <c r="N14" s="14"/>
       <c r="O14" s="14"/>
       <c r="P14" s="14"/>
@@ -961,24 +939,24 @@
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="35" t="s">
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="K15" s="37" t="n">
+      <c r="K15" s="33" t="n">
         <v>42201</v>
       </c>
-      <c r="L15" s="35" t="s">
+      <c r="L15" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="M15" s="34"/>
+      <c r="M15" s="14"/>
       <c r="N15" s="14"/>
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
